--- a/output_additional_column/1975.xlsx
+++ b/output_additional_column/1975.xlsx
@@ -490,7 +490,7 @@
         <v>7500</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="3">
@@ -514,7 +514,7 @@
         <v>66653</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="4">
@@ -538,7 +538,7 @@
         <v>60631</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="5">
@@ -562,7 +562,7 @@
         <v>23957</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="6">
@@ -586,7 +586,7 @@
         <v>74165</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="7">
@@ -610,7 +610,7 @@
         <v>80427</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="8">
@@ -634,7 +634,7 @@
         <v>22212</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         <v>31160</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="10">
@@ -682,7 +682,7 @@
         <v>61905</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="11">
@@ -706,7 +706,7 @@
         <v>44319</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="12">
@@ -730,7 +730,7 @@
         <v>52614</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="13">
@@ -754,7 +754,7 @@
         <v>48178</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="14">
@@ -778,7 +778,7 @@
         <v>46098</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="15">
@@ -802,7 +802,7 @@
         <v>19789</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="16">
@@ -826,7 +826,7 @@
         <v>33183</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="17">
@@ -850,7 +850,7 @@
         <v>61456</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="18">
@@ -874,7 +874,7 @@
         <v>43057</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="19">
@@ -898,7 +898,7 @@
         <v>81169</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="20">
@@ -922,7 +922,7 @@
         <v>47682</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="21">
@@ -946,7 +946,7 @@
         <v>92163</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="22">
@@ -970,7 +970,7 @@
         <v>17459</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="23">
@@ -994,7 +994,7 @@
         <v>30801</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="24">
@@ -1018,7 +1018,7 @@
         <v>84196</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="25">
@@ -1042,7 +1042,7 @@
         <v>153924</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="26">
@@ -1066,7 +1066,7 @@
         <v>58330</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="27">
@@ -1090,7 +1090,7 @@
         <v>52614</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="28">
@@ -1114,7 +1114,7 @@
         <v>33249</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="29">
@@ -1138,7 +1138,7 @@
         <v>76618</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="30">
@@ -1162,7 +1162,7 @@
         <v>17003</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="31">
@@ -1186,7 +1186,7 @@
         <v>58330</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="32">
@@ -1210,7 +1210,7 @@
         <v>73170</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="33">
@@ -1234,7 +1234,7 @@
         <v>49514</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="34">
@@ -1258,7 +1258,7 @@
         <v>35797</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="35">
@@ -1282,7 +1282,7 @@
         <v>36627</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="36">
@@ -1306,7 +1306,7 @@
         <v>60554</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="37">
@@ -1330,7 +1330,7 @@
         <v>67893</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="38">
@@ -1354,7 +1354,7 @@
         <v>40233</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="39">
@@ -1378,7 +1378,7 @@
         <v>83829</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="40">
@@ -1402,7 +1402,7 @@
         <v>42160</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="41">
@@ -1426,7 +1426,7 @@
         <v>54730</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="42">
@@ -1450,7 +1450,7 @@
         <v>65106</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="43">
@@ -1474,7 +1474,7 @@
         <v>74190</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="44">
@@ -1498,7 +1498,7 @@
         <v>83829</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="45">
@@ -1522,7 +1522,7 @@
         <v>37368</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="46">
@@ -1546,7 +1546,7 @@
         <v>46149</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="47">
@@ -1570,7 +1570,7 @@
         <v>45503</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="48">
@@ -1594,7 +1594,7 @@
         <v>51948</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="49">
@@ -1618,7 +1618,7 @@
         <v>33249</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="50">
@@ -1642,7 +1642,7 @@
         <v>57338</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="51">
@@ -1666,7 +1666,7 @@
         <v>56243</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="52">
@@ -1690,7 +1690,7 @@
         <v>41658</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="53">
@@ -1714,7 +1714,7 @@
         <v>53253</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="54">
@@ -1738,7 +1738,7 @@
         <v>46772</v>
       </c>
       <c r="F54" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="55">
@@ -1762,7 +1762,7 @@
         <v>46098</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="56">
@@ -1786,7 +1786,7 @@
         <v>57036</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="57">
@@ -1810,7 +1810,7 @@
         <v>69283</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="58">
@@ -1834,7 +1834,7 @@
         <v>46098</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="59">
@@ -1858,7 +1858,7 @@
         <v>37284</v>
       </c>
       <c r="F59" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="60">
@@ -1882,7 +1882,7 @@
         <v>36663</v>
       </c>
       <c r="F60" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="61">
@@ -1906,7 +1906,7 @@
         <v>33955</v>
       </c>
       <c r="F61" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="62">
@@ -1930,7 +1930,7 @@
         <v>27573</v>
       </c>
       <c r="F62" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="63">
@@ -1954,7 +1954,7 @@
         <v>59481</v>
       </c>
       <c r="F63" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="64">
@@ -1978,7 +1978,7 @@
         <v>47808</v>
       </c>
       <c r="F64" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="65">
@@ -2002,7 +2002,7 @@
         <v>22669</v>
       </c>
       <c r="F65" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="66">
@@ -2026,7 +2026,7 @@
         <v>86836</v>
       </c>
       <c r="F66" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="67">
@@ -2050,7 +2050,7 @@
         <v>22280</v>
       </c>
       <c r="F67" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="68">
@@ -2074,7 +2074,7 @@
         <v>11448</v>
       </c>
       <c r="F68" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="69">
@@ -2098,7 +2098,7 @@
         <v>70300</v>
       </c>
       <c r="F69" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="70">
@@ -2122,7 +2122,7 @@
         <v>76532</v>
       </c>
       <c r="F70" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="71">
@@ -2146,7 +2146,7 @@
         <v>34984</v>
       </c>
       <c r="F71" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="72">
@@ -2170,7 +2170,7 @@
         <v>40794</v>
       </c>
       <c r="F72" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="73">
@@ -2194,7 +2194,7 @@
         <v>53201</v>
       </c>
       <c r="F73" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="74">
@@ -2218,7 +2218,7 @@
         <v>79205</v>
       </c>
       <c r="F74" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="75">
@@ -2242,7 +2242,7 @@
         <v>56559</v>
       </c>
       <c r="F75" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="76">
@@ -2266,7 +2266,7 @@
         <v>37284</v>
       </c>
       <c r="F76" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="77">
@@ -2290,7 +2290,7 @@
         <v>55914</v>
       </c>
       <c r="F77" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="78">
@@ -2314,7 +2314,7 @@
         <v>55801</v>
       </c>
       <c r="F78" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="79">
@@ -2338,7 +2338,7 @@
         <v>80144</v>
       </c>
       <c r="F79" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="80">
@@ -2362,7 +2362,7 @@
         <v>76068</v>
       </c>
       <c r="F80" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="81">
@@ -2386,7 +2386,7 @@
         <v>34176</v>
       </c>
       <c r="F81" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="82">
@@ -2410,7 +2410,7 @@
         <v>60934</v>
       </c>
       <c r="F82" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="83">
@@ -2434,7 +2434,7 @@
         <v>79174</v>
       </c>
       <c r="F83" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
     <row r="84">
@@ -2458,7 +2458,7 @@
         <v>37085</v>
       </c>
       <c r="F84" s="2" t="n">
-        <v>44703.76711239672</v>
+        <v>44703.79033189301</v>
       </c>
     </row>
   </sheetData>
